--- a/public/QuestionData/cobasoalimport.xlsx
+++ b/public/QuestionData/cobasoalimport.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07C104BC-0E92-404E-89F7-BA502F69F44E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{499F2628-0840-4421-94EA-2EE7BF73173E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{959A027F-E952-4A3F-86B3-B8CE4AFC19FE}"/>
   </bookViews>
@@ -24,8 +24,8 @@
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="720" uniqueCount="7">
   <si>
     <t>ayam</t>
   </si>
@@ -405,10 +405,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5972D6F3-DBF1-4F7A-9842-0CCFAC148FCD}">
-  <dimension ref="B1:K5"/>
+  <dimension ref="B1:K90"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1:K5"/>
+    <sheetView tabSelected="1" topLeftCell="A72" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5:K90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -561,6 +561,2471 @@
         <v>1</v>
       </c>
     </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F6" t="s">
+        <v>3</v>
+      </c>
+      <c r="G6" t="s">
+        <v>4</v>
+      </c>
+      <c r="H6" t="s">
+        <v>5</v>
+      </c>
+      <c r="I6" t="s">
+        <v>1</v>
+      </c>
+      <c r="J6" t="s">
+        <v>6</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E7" t="s">
+        <v>2</v>
+      </c>
+      <c r="F7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G7" t="s">
+        <v>4</v>
+      </c>
+      <c r="H7" t="s">
+        <v>5</v>
+      </c>
+      <c r="I7" t="s">
+        <v>1</v>
+      </c>
+      <c r="J7" t="s">
+        <v>6</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D8" t="s">
+        <v>1</v>
+      </c>
+      <c r="E8" t="s">
+        <v>2</v>
+      </c>
+      <c r="F8" t="s">
+        <v>3</v>
+      </c>
+      <c r="G8" t="s">
+        <v>4</v>
+      </c>
+      <c r="H8" t="s">
+        <v>5</v>
+      </c>
+      <c r="I8" t="s">
+        <v>1</v>
+      </c>
+      <c r="J8" t="s">
+        <v>6</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D9" t="s">
+        <v>1</v>
+      </c>
+      <c r="E9" t="s">
+        <v>2</v>
+      </c>
+      <c r="F9" t="s">
+        <v>3</v>
+      </c>
+      <c r="G9" t="s">
+        <v>4</v>
+      </c>
+      <c r="H9" t="s">
+        <v>5</v>
+      </c>
+      <c r="I9" t="s">
+        <v>1</v>
+      </c>
+      <c r="J9" t="s">
+        <v>6</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D10" t="s">
+        <v>1</v>
+      </c>
+      <c r="E10" t="s">
+        <v>2</v>
+      </c>
+      <c r="F10" t="s">
+        <v>3</v>
+      </c>
+      <c r="G10" t="s">
+        <v>4</v>
+      </c>
+      <c r="H10" t="s">
+        <v>5</v>
+      </c>
+      <c r="I10" t="s">
+        <v>1</v>
+      </c>
+      <c r="J10" t="s">
+        <v>6</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D11" t="s">
+        <v>1</v>
+      </c>
+      <c r="E11" t="s">
+        <v>2</v>
+      </c>
+      <c r="F11" t="s">
+        <v>3</v>
+      </c>
+      <c r="G11" t="s">
+        <v>4</v>
+      </c>
+      <c r="H11" t="s">
+        <v>5</v>
+      </c>
+      <c r="I11" t="s">
+        <v>1</v>
+      </c>
+      <c r="J11" t="s">
+        <v>6</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D12" t="s">
+        <v>1</v>
+      </c>
+      <c r="E12" t="s">
+        <v>2</v>
+      </c>
+      <c r="F12" t="s">
+        <v>3</v>
+      </c>
+      <c r="G12" t="s">
+        <v>4</v>
+      </c>
+      <c r="H12" t="s">
+        <v>5</v>
+      </c>
+      <c r="I12" t="s">
+        <v>1</v>
+      </c>
+      <c r="J12" t="s">
+        <v>6</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>0</v>
+      </c>
+      <c r="D13" t="s">
+        <v>1</v>
+      </c>
+      <c r="E13" t="s">
+        <v>2</v>
+      </c>
+      <c r="F13" t="s">
+        <v>3</v>
+      </c>
+      <c r="G13" t="s">
+        <v>4</v>
+      </c>
+      <c r="H13" t="s">
+        <v>5</v>
+      </c>
+      <c r="I13" t="s">
+        <v>1</v>
+      </c>
+      <c r="J13" t="s">
+        <v>6</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>0</v>
+      </c>
+      <c r="D14" t="s">
+        <v>1</v>
+      </c>
+      <c r="E14" t="s">
+        <v>2</v>
+      </c>
+      <c r="F14" t="s">
+        <v>3</v>
+      </c>
+      <c r="G14" t="s">
+        <v>4</v>
+      </c>
+      <c r="H14" t="s">
+        <v>5</v>
+      </c>
+      <c r="I14" t="s">
+        <v>1</v>
+      </c>
+      <c r="J14" t="s">
+        <v>6</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>0</v>
+      </c>
+      <c r="D15" t="s">
+        <v>1</v>
+      </c>
+      <c r="E15" t="s">
+        <v>2</v>
+      </c>
+      <c r="F15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G15" t="s">
+        <v>4</v>
+      </c>
+      <c r="H15" t="s">
+        <v>5</v>
+      </c>
+      <c r="I15" t="s">
+        <v>1</v>
+      </c>
+      <c r="J15" t="s">
+        <v>6</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D16" t="s">
+        <v>1</v>
+      </c>
+      <c r="E16" t="s">
+        <v>2</v>
+      </c>
+      <c r="F16" t="s">
+        <v>3</v>
+      </c>
+      <c r="G16" t="s">
+        <v>4</v>
+      </c>
+      <c r="H16" t="s">
+        <v>5</v>
+      </c>
+      <c r="I16" t="s">
+        <v>1</v>
+      </c>
+      <c r="J16" t="s">
+        <v>6</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>0</v>
+      </c>
+      <c r="D17" t="s">
+        <v>1</v>
+      </c>
+      <c r="E17" t="s">
+        <v>2</v>
+      </c>
+      <c r="F17" t="s">
+        <v>3</v>
+      </c>
+      <c r="G17" t="s">
+        <v>4</v>
+      </c>
+      <c r="H17" t="s">
+        <v>5</v>
+      </c>
+      <c r="I17" t="s">
+        <v>1</v>
+      </c>
+      <c r="J17" t="s">
+        <v>6</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>0</v>
+      </c>
+      <c r="D18" t="s">
+        <v>1</v>
+      </c>
+      <c r="E18" t="s">
+        <v>2</v>
+      </c>
+      <c r="F18" t="s">
+        <v>3</v>
+      </c>
+      <c r="G18" t="s">
+        <v>4</v>
+      </c>
+      <c r="H18" t="s">
+        <v>5</v>
+      </c>
+      <c r="I18" t="s">
+        <v>1</v>
+      </c>
+      <c r="J18" t="s">
+        <v>6</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D19" t="s">
+        <v>1</v>
+      </c>
+      <c r="E19" t="s">
+        <v>2</v>
+      </c>
+      <c r="F19" t="s">
+        <v>3</v>
+      </c>
+      <c r="G19" t="s">
+        <v>4</v>
+      </c>
+      <c r="H19" t="s">
+        <v>5</v>
+      </c>
+      <c r="I19" t="s">
+        <v>1</v>
+      </c>
+      <c r="J19" t="s">
+        <v>6</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>0</v>
+      </c>
+      <c r="D20" t="s">
+        <v>1</v>
+      </c>
+      <c r="E20" t="s">
+        <v>2</v>
+      </c>
+      <c r="F20" t="s">
+        <v>3</v>
+      </c>
+      <c r="G20" t="s">
+        <v>4</v>
+      </c>
+      <c r="H20" t="s">
+        <v>5</v>
+      </c>
+      <c r="I20" t="s">
+        <v>1</v>
+      </c>
+      <c r="J20" t="s">
+        <v>6</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D21" t="s">
+        <v>1</v>
+      </c>
+      <c r="E21" t="s">
+        <v>2</v>
+      </c>
+      <c r="F21" t="s">
+        <v>3</v>
+      </c>
+      <c r="G21" t="s">
+        <v>4</v>
+      </c>
+      <c r="H21" t="s">
+        <v>5</v>
+      </c>
+      <c r="I21" t="s">
+        <v>1</v>
+      </c>
+      <c r="J21" t="s">
+        <v>6</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>0</v>
+      </c>
+      <c r="D22" t="s">
+        <v>1</v>
+      </c>
+      <c r="E22" t="s">
+        <v>2</v>
+      </c>
+      <c r="F22" t="s">
+        <v>3</v>
+      </c>
+      <c r="G22" t="s">
+        <v>4</v>
+      </c>
+      <c r="H22" t="s">
+        <v>5</v>
+      </c>
+      <c r="I22" t="s">
+        <v>1</v>
+      </c>
+      <c r="J22" t="s">
+        <v>6</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>0</v>
+      </c>
+      <c r="D23" t="s">
+        <v>1</v>
+      </c>
+      <c r="E23" t="s">
+        <v>2</v>
+      </c>
+      <c r="F23" t="s">
+        <v>3</v>
+      </c>
+      <c r="G23" t="s">
+        <v>4</v>
+      </c>
+      <c r="H23" t="s">
+        <v>5</v>
+      </c>
+      <c r="I23" t="s">
+        <v>1</v>
+      </c>
+      <c r="J23" t="s">
+        <v>6</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>0</v>
+      </c>
+      <c r="D24" t="s">
+        <v>1</v>
+      </c>
+      <c r="E24" t="s">
+        <v>2</v>
+      </c>
+      <c r="F24" t="s">
+        <v>3</v>
+      </c>
+      <c r="G24" t="s">
+        <v>4</v>
+      </c>
+      <c r="H24" t="s">
+        <v>5</v>
+      </c>
+      <c r="I24" t="s">
+        <v>1</v>
+      </c>
+      <c r="J24" t="s">
+        <v>6</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>0</v>
+      </c>
+      <c r="D25" t="s">
+        <v>1</v>
+      </c>
+      <c r="E25" t="s">
+        <v>2</v>
+      </c>
+      <c r="F25" t="s">
+        <v>3</v>
+      </c>
+      <c r="G25" t="s">
+        <v>4</v>
+      </c>
+      <c r="H25" t="s">
+        <v>5</v>
+      </c>
+      <c r="I25" t="s">
+        <v>1</v>
+      </c>
+      <c r="J25" t="s">
+        <v>6</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>0</v>
+      </c>
+      <c r="D26" t="s">
+        <v>1</v>
+      </c>
+      <c r="E26" t="s">
+        <v>2</v>
+      </c>
+      <c r="F26" t="s">
+        <v>3</v>
+      </c>
+      <c r="G26" t="s">
+        <v>4</v>
+      </c>
+      <c r="H26" t="s">
+        <v>5</v>
+      </c>
+      <c r="I26" t="s">
+        <v>1</v>
+      </c>
+      <c r="J26" t="s">
+        <v>6</v>
+      </c>
+      <c r="K26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>0</v>
+      </c>
+      <c r="D27" t="s">
+        <v>1</v>
+      </c>
+      <c r="E27" t="s">
+        <v>2</v>
+      </c>
+      <c r="F27" t="s">
+        <v>3</v>
+      </c>
+      <c r="G27" t="s">
+        <v>4</v>
+      </c>
+      <c r="H27" t="s">
+        <v>5</v>
+      </c>
+      <c r="I27" t="s">
+        <v>1</v>
+      </c>
+      <c r="J27" t="s">
+        <v>6</v>
+      </c>
+      <c r="K27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>0</v>
+      </c>
+      <c r="D28" t="s">
+        <v>1</v>
+      </c>
+      <c r="E28" t="s">
+        <v>2</v>
+      </c>
+      <c r="F28" t="s">
+        <v>3</v>
+      </c>
+      <c r="G28" t="s">
+        <v>4</v>
+      </c>
+      <c r="H28" t="s">
+        <v>5</v>
+      </c>
+      <c r="I28" t="s">
+        <v>1</v>
+      </c>
+      <c r="J28" t="s">
+        <v>6</v>
+      </c>
+      <c r="K28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>0</v>
+      </c>
+      <c r="D29" t="s">
+        <v>1</v>
+      </c>
+      <c r="E29" t="s">
+        <v>2</v>
+      </c>
+      <c r="F29" t="s">
+        <v>3</v>
+      </c>
+      <c r="G29" t="s">
+        <v>4</v>
+      </c>
+      <c r="H29" t="s">
+        <v>5</v>
+      </c>
+      <c r="I29" t="s">
+        <v>1</v>
+      </c>
+      <c r="J29" t="s">
+        <v>6</v>
+      </c>
+      <c r="K29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>0</v>
+      </c>
+      <c r="D30" t="s">
+        <v>1</v>
+      </c>
+      <c r="E30" t="s">
+        <v>2</v>
+      </c>
+      <c r="F30" t="s">
+        <v>3</v>
+      </c>
+      <c r="G30" t="s">
+        <v>4</v>
+      </c>
+      <c r="H30" t="s">
+        <v>5</v>
+      </c>
+      <c r="I30" t="s">
+        <v>1</v>
+      </c>
+      <c r="J30" t="s">
+        <v>6</v>
+      </c>
+      <c r="K30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>0</v>
+      </c>
+      <c r="D31" t="s">
+        <v>1</v>
+      </c>
+      <c r="E31" t="s">
+        <v>2</v>
+      </c>
+      <c r="F31" t="s">
+        <v>3</v>
+      </c>
+      <c r="G31" t="s">
+        <v>4</v>
+      </c>
+      <c r="H31" t="s">
+        <v>5</v>
+      </c>
+      <c r="I31" t="s">
+        <v>1</v>
+      </c>
+      <c r="J31" t="s">
+        <v>6</v>
+      </c>
+      <c r="K31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>0</v>
+      </c>
+      <c r="D32" t="s">
+        <v>1</v>
+      </c>
+      <c r="E32" t="s">
+        <v>2</v>
+      </c>
+      <c r="F32" t="s">
+        <v>3</v>
+      </c>
+      <c r="G32" t="s">
+        <v>4</v>
+      </c>
+      <c r="H32" t="s">
+        <v>5</v>
+      </c>
+      <c r="I32" t="s">
+        <v>1</v>
+      </c>
+      <c r="J32" t="s">
+        <v>6</v>
+      </c>
+      <c r="K32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>0</v>
+      </c>
+      <c r="D33" t="s">
+        <v>1</v>
+      </c>
+      <c r="E33" t="s">
+        <v>2</v>
+      </c>
+      <c r="F33" t="s">
+        <v>3</v>
+      </c>
+      <c r="G33" t="s">
+        <v>4</v>
+      </c>
+      <c r="H33" t="s">
+        <v>5</v>
+      </c>
+      <c r="I33" t="s">
+        <v>1</v>
+      </c>
+      <c r="J33" t="s">
+        <v>6</v>
+      </c>
+      <c r="K33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>0</v>
+      </c>
+      <c r="D34" t="s">
+        <v>1</v>
+      </c>
+      <c r="E34" t="s">
+        <v>2</v>
+      </c>
+      <c r="F34" t="s">
+        <v>3</v>
+      </c>
+      <c r="G34" t="s">
+        <v>4</v>
+      </c>
+      <c r="H34" t="s">
+        <v>5</v>
+      </c>
+      <c r="I34" t="s">
+        <v>1</v>
+      </c>
+      <c r="J34" t="s">
+        <v>6</v>
+      </c>
+      <c r="K34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>0</v>
+      </c>
+      <c r="D35" t="s">
+        <v>1</v>
+      </c>
+      <c r="E35" t="s">
+        <v>2</v>
+      </c>
+      <c r="F35" t="s">
+        <v>3</v>
+      </c>
+      <c r="G35" t="s">
+        <v>4</v>
+      </c>
+      <c r="H35" t="s">
+        <v>5</v>
+      </c>
+      <c r="I35" t="s">
+        <v>1</v>
+      </c>
+      <c r="J35" t="s">
+        <v>6</v>
+      </c>
+      <c r="K35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>0</v>
+      </c>
+      <c r="D36" t="s">
+        <v>1</v>
+      </c>
+      <c r="E36" t="s">
+        <v>2</v>
+      </c>
+      <c r="F36" t="s">
+        <v>3</v>
+      </c>
+      <c r="G36" t="s">
+        <v>4</v>
+      </c>
+      <c r="H36" t="s">
+        <v>5</v>
+      </c>
+      <c r="I36" t="s">
+        <v>1</v>
+      </c>
+      <c r="J36" t="s">
+        <v>6</v>
+      </c>
+      <c r="K36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>0</v>
+      </c>
+      <c r="D37" t="s">
+        <v>1</v>
+      </c>
+      <c r="E37" t="s">
+        <v>2</v>
+      </c>
+      <c r="F37" t="s">
+        <v>3</v>
+      </c>
+      <c r="G37" t="s">
+        <v>4</v>
+      </c>
+      <c r="H37" t="s">
+        <v>5</v>
+      </c>
+      <c r="I37" t="s">
+        <v>1</v>
+      </c>
+      <c r="J37" t="s">
+        <v>6</v>
+      </c>
+      <c r="K37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>0</v>
+      </c>
+      <c r="D38" t="s">
+        <v>1</v>
+      </c>
+      <c r="E38" t="s">
+        <v>2</v>
+      </c>
+      <c r="F38" t="s">
+        <v>3</v>
+      </c>
+      <c r="G38" t="s">
+        <v>4</v>
+      </c>
+      <c r="H38" t="s">
+        <v>5</v>
+      </c>
+      <c r="I38" t="s">
+        <v>1</v>
+      </c>
+      <c r="J38" t="s">
+        <v>6</v>
+      </c>
+      <c r="K38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>0</v>
+      </c>
+      <c r="D39" t="s">
+        <v>1</v>
+      </c>
+      <c r="E39" t="s">
+        <v>2</v>
+      </c>
+      <c r="F39" t="s">
+        <v>3</v>
+      </c>
+      <c r="G39" t="s">
+        <v>4</v>
+      </c>
+      <c r="H39" t="s">
+        <v>5</v>
+      </c>
+      <c r="I39" t="s">
+        <v>1</v>
+      </c>
+      <c r="J39" t="s">
+        <v>6</v>
+      </c>
+      <c r="K39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>0</v>
+      </c>
+      <c r="D40" t="s">
+        <v>1</v>
+      </c>
+      <c r="E40" t="s">
+        <v>2</v>
+      </c>
+      <c r="F40" t="s">
+        <v>3</v>
+      </c>
+      <c r="G40" t="s">
+        <v>4</v>
+      </c>
+      <c r="H40" t="s">
+        <v>5</v>
+      </c>
+      <c r="I40" t="s">
+        <v>1</v>
+      </c>
+      <c r="J40" t="s">
+        <v>6</v>
+      </c>
+      <c r="K40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>0</v>
+      </c>
+      <c r="D41" t="s">
+        <v>1</v>
+      </c>
+      <c r="E41" t="s">
+        <v>2</v>
+      </c>
+      <c r="F41" t="s">
+        <v>3</v>
+      </c>
+      <c r="G41" t="s">
+        <v>4</v>
+      </c>
+      <c r="H41" t="s">
+        <v>5</v>
+      </c>
+      <c r="I41" t="s">
+        <v>1</v>
+      </c>
+      <c r="J41" t="s">
+        <v>6</v>
+      </c>
+      <c r="K41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>0</v>
+      </c>
+      <c r="D42" t="s">
+        <v>1</v>
+      </c>
+      <c r="E42" t="s">
+        <v>2</v>
+      </c>
+      <c r="F42" t="s">
+        <v>3</v>
+      </c>
+      <c r="G42" t="s">
+        <v>4</v>
+      </c>
+      <c r="H42" t="s">
+        <v>5</v>
+      </c>
+      <c r="I42" t="s">
+        <v>1</v>
+      </c>
+      <c r="J42" t="s">
+        <v>6</v>
+      </c>
+      <c r="K42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>0</v>
+      </c>
+      <c r="D43" t="s">
+        <v>1</v>
+      </c>
+      <c r="E43" t="s">
+        <v>2</v>
+      </c>
+      <c r="F43" t="s">
+        <v>3</v>
+      </c>
+      <c r="G43" t="s">
+        <v>4</v>
+      </c>
+      <c r="H43" t="s">
+        <v>5</v>
+      </c>
+      <c r="I43" t="s">
+        <v>1</v>
+      </c>
+      <c r="J43" t="s">
+        <v>6</v>
+      </c>
+      <c r="K43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>0</v>
+      </c>
+      <c r="D44" t="s">
+        <v>1</v>
+      </c>
+      <c r="E44" t="s">
+        <v>2</v>
+      </c>
+      <c r="F44" t="s">
+        <v>3</v>
+      </c>
+      <c r="G44" t="s">
+        <v>4</v>
+      </c>
+      <c r="H44" t="s">
+        <v>5</v>
+      </c>
+      <c r="I44" t="s">
+        <v>1</v>
+      </c>
+      <c r="J44" t="s">
+        <v>6</v>
+      </c>
+      <c r="K44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>0</v>
+      </c>
+      <c r="D45" t="s">
+        <v>1</v>
+      </c>
+      <c r="E45" t="s">
+        <v>2</v>
+      </c>
+      <c r="F45" t="s">
+        <v>3</v>
+      </c>
+      <c r="G45" t="s">
+        <v>4</v>
+      </c>
+      <c r="H45" t="s">
+        <v>5</v>
+      </c>
+      <c r="I45" t="s">
+        <v>1</v>
+      </c>
+      <c r="J45" t="s">
+        <v>6</v>
+      </c>
+      <c r="K45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
+        <v>0</v>
+      </c>
+      <c r="D46" t="s">
+        <v>1</v>
+      </c>
+      <c r="E46" t="s">
+        <v>2</v>
+      </c>
+      <c r="F46" t="s">
+        <v>3</v>
+      </c>
+      <c r="G46" t="s">
+        <v>4</v>
+      </c>
+      <c r="H46" t="s">
+        <v>5</v>
+      </c>
+      <c r="I46" t="s">
+        <v>1</v>
+      </c>
+      <c r="J46" t="s">
+        <v>6</v>
+      </c>
+      <c r="K46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>0</v>
+      </c>
+      <c r="D47" t="s">
+        <v>1</v>
+      </c>
+      <c r="E47" t="s">
+        <v>2</v>
+      </c>
+      <c r="F47" t="s">
+        <v>3</v>
+      </c>
+      <c r="G47" t="s">
+        <v>4</v>
+      </c>
+      <c r="H47" t="s">
+        <v>5</v>
+      </c>
+      <c r="I47" t="s">
+        <v>1</v>
+      </c>
+      <c r="J47" t="s">
+        <v>6</v>
+      </c>
+      <c r="K47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>0</v>
+      </c>
+      <c r="D48" t="s">
+        <v>1</v>
+      </c>
+      <c r="E48" t="s">
+        <v>2</v>
+      </c>
+      <c r="F48" t="s">
+        <v>3</v>
+      </c>
+      <c r="G48" t="s">
+        <v>4</v>
+      </c>
+      <c r="H48" t="s">
+        <v>5</v>
+      </c>
+      <c r="I48" t="s">
+        <v>1</v>
+      </c>
+      <c r="J48" t="s">
+        <v>6</v>
+      </c>
+      <c r="K48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
+        <v>0</v>
+      </c>
+      <c r="D49" t="s">
+        <v>1</v>
+      </c>
+      <c r="E49" t="s">
+        <v>2</v>
+      </c>
+      <c r="F49" t="s">
+        <v>3</v>
+      </c>
+      <c r="G49" t="s">
+        <v>4</v>
+      </c>
+      <c r="H49" t="s">
+        <v>5</v>
+      </c>
+      <c r="I49" t="s">
+        <v>1</v>
+      </c>
+      <c r="J49" t="s">
+        <v>6</v>
+      </c>
+      <c r="K49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
+        <v>0</v>
+      </c>
+      <c r="D50" t="s">
+        <v>1</v>
+      </c>
+      <c r="E50" t="s">
+        <v>2</v>
+      </c>
+      <c r="F50" t="s">
+        <v>3</v>
+      </c>
+      <c r="G50" t="s">
+        <v>4</v>
+      </c>
+      <c r="H50" t="s">
+        <v>5</v>
+      </c>
+      <c r="I50" t="s">
+        <v>1</v>
+      </c>
+      <c r="J50" t="s">
+        <v>6</v>
+      </c>
+      <c r="K50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
+        <v>0</v>
+      </c>
+      <c r="D51" t="s">
+        <v>1</v>
+      </c>
+      <c r="E51" t="s">
+        <v>2</v>
+      </c>
+      <c r="F51" t="s">
+        <v>3</v>
+      </c>
+      <c r="G51" t="s">
+        <v>4</v>
+      </c>
+      <c r="H51" t="s">
+        <v>5</v>
+      </c>
+      <c r="I51" t="s">
+        <v>1</v>
+      </c>
+      <c r="J51" t="s">
+        <v>6</v>
+      </c>
+      <c r="K51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
+        <v>0</v>
+      </c>
+      <c r="D52" t="s">
+        <v>1</v>
+      </c>
+      <c r="E52" t="s">
+        <v>2</v>
+      </c>
+      <c r="F52" t="s">
+        <v>3</v>
+      </c>
+      <c r="G52" t="s">
+        <v>4</v>
+      </c>
+      <c r="H52" t="s">
+        <v>5</v>
+      </c>
+      <c r="I52" t="s">
+        <v>1</v>
+      </c>
+      <c r="J52" t="s">
+        <v>6</v>
+      </c>
+      <c r="K52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
+        <v>0</v>
+      </c>
+      <c r="D53" t="s">
+        <v>1</v>
+      </c>
+      <c r="E53" t="s">
+        <v>2</v>
+      </c>
+      <c r="F53" t="s">
+        <v>3</v>
+      </c>
+      <c r="G53" t="s">
+        <v>4</v>
+      </c>
+      <c r="H53" t="s">
+        <v>5</v>
+      </c>
+      <c r="I53" t="s">
+        <v>1</v>
+      </c>
+      <c r="J53" t="s">
+        <v>6</v>
+      </c>
+      <c r="K53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B54" t="s">
+        <v>0</v>
+      </c>
+      <c r="D54" t="s">
+        <v>1</v>
+      </c>
+      <c r="E54" t="s">
+        <v>2</v>
+      </c>
+      <c r="F54" t="s">
+        <v>3</v>
+      </c>
+      <c r="G54" t="s">
+        <v>4</v>
+      </c>
+      <c r="H54" t="s">
+        <v>5</v>
+      </c>
+      <c r="I54" t="s">
+        <v>1</v>
+      </c>
+      <c r="J54" t="s">
+        <v>6</v>
+      </c>
+      <c r="K54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B55" t="s">
+        <v>0</v>
+      </c>
+      <c r="D55" t="s">
+        <v>1</v>
+      </c>
+      <c r="E55" t="s">
+        <v>2</v>
+      </c>
+      <c r="F55" t="s">
+        <v>3</v>
+      </c>
+      <c r="G55" t="s">
+        <v>4</v>
+      </c>
+      <c r="H55" t="s">
+        <v>5</v>
+      </c>
+      <c r="I55" t="s">
+        <v>1</v>
+      </c>
+      <c r="J55" t="s">
+        <v>6</v>
+      </c>
+      <c r="K55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B56" t="s">
+        <v>0</v>
+      </c>
+      <c r="D56" t="s">
+        <v>1</v>
+      </c>
+      <c r="E56" t="s">
+        <v>2</v>
+      </c>
+      <c r="F56" t="s">
+        <v>3</v>
+      </c>
+      <c r="G56" t="s">
+        <v>4</v>
+      </c>
+      <c r="H56" t="s">
+        <v>5</v>
+      </c>
+      <c r="I56" t="s">
+        <v>1</v>
+      </c>
+      <c r="J56" t="s">
+        <v>6</v>
+      </c>
+      <c r="K56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B57" t="s">
+        <v>0</v>
+      </c>
+      <c r="D57" t="s">
+        <v>1</v>
+      </c>
+      <c r="E57" t="s">
+        <v>2</v>
+      </c>
+      <c r="F57" t="s">
+        <v>3</v>
+      </c>
+      <c r="G57" t="s">
+        <v>4</v>
+      </c>
+      <c r="H57" t="s">
+        <v>5</v>
+      </c>
+      <c r="I57" t="s">
+        <v>1</v>
+      </c>
+      <c r="J57" t="s">
+        <v>6</v>
+      </c>
+      <c r="K57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B58" t="s">
+        <v>0</v>
+      </c>
+      <c r="D58" t="s">
+        <v>1</v>
+      </c>
+      <c r="E58" t="s">
+        <v>2</v>
+      </c>
+      <c r="F58" t="s">
+        <v>3</v>
+      </c>
+      <c r="G58" t="s">
+        <v>4</v>
+      </c>
+      <c r="H58" t="s">
+        <v>5</v>
+      </c>
+      <c r="I58" t="s">
+        <v>1</v>
+      </c>
+      <c r="J58" t="s">
+        <v>6</v>
+      </c>
+      <c r="K58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B59" t="s">
+        <v>0</v>
+      </c>
+      <c r="D59" t="s">
+        <v>1</v>
+      </c>
+      <c r="E59" t="s">
+        <v>2</v>
+      </c>
+      <c r="F59" t="s">
+        <v>3</v>
+      </c>
+      <c r="G59" t="s">
+        <v>4</v>
+      </c>
+      <c r="H59" t="s">
+        <v>5</v>
+      </c>
+      <c r="I59" t="s">
+        <v>1</v>
+      </c>
+      <c r="J59" t="s">
+        <v>6</v>
+      </c>
+      <c r="K59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B60" t="s">
+        <v>0</v>
+      </c>
+      <c r="D60" t="s">
+        <v>1</v>
+      </c>
+      <c r="E60" t="s">
+        <v>2</v>
+      </c>
+      <c r="F60" t="s">
+        <v>3</v>
+      </c>
+      <c r="G60" t="s">
+        <v>4</v>
+      </c>
+      <c r="H60" t="s">
+        <v>5</v>
+      </c>
+      <c r="I60" t="s">
+        <v>1</v>
+      </c>
+      <c r="J60" t="s">
+        <v>6</v>
+      </c>
+      <c r="K60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B61" t="s">
+        <v>0</v>
+      </c>
+      <c r="D61" t="s">
+        <v>1</v>
+      </c>
+      <c r="E61" t="s">
+        <v>2</v>
+      </c>
+      <c r="F61" t="s">
+        <v>3</v>
+      </c>
+      <c r="G61" t="s">
+        <v>4</v>
+      </c>
+      <c r="H61" t="s">
+        <v>5</v>
+      </c>
+      <c r="I61" t="s">
+        <v>1</v>
+      </c>
+      <c r="J61" t="s">
+        <v>6</v>
+      </c>
+      <c r="K61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B62" t="s">
+        <v>0</v>
+      </c>
+      <c r="D62" t="s">
+        <v>1</v>
+      </c>
+      <c r="E62" t="s">
+        <v>2</v>
+      </c>
+      <c r="F62" t="s">
+        <v>3</v>
+      </c>
+      <c r="G62" t="s">
+        <v>4</v>
+      </c>
+      <c r="H62" t="s">
+        <v>5</v>
+      </c>
+      <c r="I62" t="s">
+        <v>1</v>
+      </c>
+      <c r="J62" t="s">
+        <v>6</v>
+      </c>
+      <c r="K62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B63" t="s">
+        <v>0</v>
+      </c>
+      <c r="D63" t="s">
+        <v>1</v>
+      </c>
+      <c r="E63" t="s">
+        <v>2</v>
+      </c>
+      <c r="F63" t="s">
+        <v>3</v>
+      </c>
+      <c r="G63" t="s">
+        <v>4</v>
+      </c>
+      <c r="H63" t="s">
+        <v>5</v>
+      </c>
+      <c r="I63" t="s">
+        <v>1</v>
+      </c>
+      <c r="J63" t="s">
+        <v>6</v>
+      </c>
+      <c r="K63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B64" t="s">
+        <v>0</v>
+      </c>
+      <c r="D64" t="s">
+        <v>1</v>
+      </c>
+      <c r="E64" t="s">
+        <v>2</v>
+      </c>
+      <c r="F64" t="s">
+        <v>3</v>
+      </c>
+      <c r="G64" t="s">
+        <v>4</v>
+      </c>
+      <c r="H64" t="s">
+        <v>5</v>
+      </c>
+      <c r="I64" t="s">
+        <v>1</v>
+      </c>
+      <c r="J64" t="s">
+        <v>6</v>
+      </c>
+      <c r="K64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B65" t="s">
+        <v>0</v>
+      </c>
+      <c r="D65" t="s">
+        <v>1</v>
+      </c>
+      <c r="E65" t="s">
+        <v>2</v>
+      </c>
+      <c r="F65" t="s">
+        <v>3</v>
+      </c>
+      <c r="G65" t="s">
+        <v>4</v>
+      </c>
+      <c r="H65" t="s">
+        <v>5</v>
+      </c>
+      <c r="I65" t="s">
+        <v>1</v>
+      </c>
+      <c r="J65" t="s">
+        <v>6</v>
+      </c>
+      <c r="K65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B66" t="s">
+        <v>0</v>
+      </c>
+      <c r="D66" t="s">
+        <v>1</v>
+      </c>
+      <c r="E66" t="s">
+        <v>2</v>
+      </c>
+      <c r="F66" t="s">
+        <v>3</v>
+      </c>
+      <c r="G66" t="s">
+        <v>4</v>
+      </c>
+      <c r="H66" t="s">
+        <v>5</v>
+      </c>
+      <c r="I66" t="s">
+        <v>1</v>
+      </c>
+      <c r="J66" t="s">
+        <v>6</v>
+      </c>
+      <c r="K66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B67" t="s">
+        <v>0</v>
+      </c>
+      <c r="D67" t="s">
+        <v>1</v>
+      </c>
+      <c r="E67" t="s">
+        <v>2</v>
+      </c>
+      <c r="F67" t="s">
+        <v>3</v>
+      </c>
+      <c r="G67" t="s">
+        <v>4</v>
+      </c>
+      <c r="H67" t="s">
+        <v>5</v>
+      </c>
+      <c r="I67" t="s">
+        <v>1</v>
+      </c>
+      <c r="J67" t="s">
+        <v>6</v>
+      </c>
+      <c r="K67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B68" t="s">
+        <v>0</v>
+      </c>
+      <c r="D68" t="s">
+        <v>1</v>
+      </c>
+      <c r="E68" t="s">
+        <v>2</v>
+      </c>
+      <c r="F68" t="s">
+        <v>3</v>
+      </c>
+      <c r="G68" t="s">
+        <v>4</v>
+      </c>
+      <c r="H68" t="s">
+        <v>5</v>
+      </c>
+      <c r="I68" t="s">
+        <v>1</v>
+      </c>
+      <c r="J68" t="s">
+        <v>6</v>
+      </c>
+      <c r="K68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B69" t="s">
+        <v>0</v>
+      </c>
+      <c r="D69" t="s">
+        <v>1</v>
+      </c>
+      <c r="E69" t="s">
+        <v>2</v>
+      </c>
+      <c r="F69" t="s">
+        <v>3</v>
+      </c>
+      <c r="G69" t="s">
+        <v>4</v>
+      </c>
+      <c r="H69" t="s">
+        <v>5</v>
+      </c>
+      <c r="I69" t="s">
+        <v>1</v>
+      </c>
+      <c r="J69" t="s">
+        <v>6</v>
+      </c>
+      <c r="K69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B70" t="s">
+        <v>0</v>
+      </c>
+      <c r="D70" t="s">
+        <v>1</v>
+      </c>
+      <c r="E70" t="s">
+        <v>2</v>
+      </c>
+      <c r="F70" t="s">
+        <v>3</v>
+      </c>
+      <c r="G70" t="s">
+        <v>4</v>
+      </c>
+      <c r="H70" t="s">
+        <v>5</v>
+      </c>
+      <c r="I70" t="s">
+        <v>1</v>
+      </c>
+      <c r="J70" t="s">
+        <v>6</v>
+      </c>
+      <c r="K70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B71" t="s">
+        <v>0</v>
+      </c>
+      <c r="D71" t="s">
+        <v>1</v>
+      </c>
+      <c r="E71" t="s">
+        <v>2</v>
+      </c>
+      <c r="F71" t="s">
+        <v>3</v>
+      </c>
+      <c r="G71" t="s">
+        <v>4</v>
+      </c>
+      <c r="H71" t="s">
+        <v>5</v>
+      </c>
+      <c r="I71" t="s">
+        <v>1</v>
+      </c>
+      <c r="J71" t="s">
+        <v>6</v>
+      </c>
+      <c r="K71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B72" t="s">
+        <v>0</v>
+      </c>
+      <c r="D72" t="s">
+        <v>1</v>
+      </c>
+      <c r="E72" t="s">
+        <v>2</v>
+      </c>
+      <c r="F72" t="s">
+        <v>3</v>
+      </c>
+      <c r="G72" t="s">
+        <v>4</v>
+      </c>
+      <c r="H72" t="s">
+        <v>5</v>
+      </c>
+      <c r="I72" t="s">
+        <v>1</v>
+      </c>
+      <c r="J72" t="s">
+        <v>6</v>
+      </c>
+      <c r="K72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B73" t="s">
+        <v>0</v>
+      </c>
+      <c r="D73" t="s">
+        <v>1</v>
+      </c>
+      <c r="E73" t="s">
+        <v>2</v>
+      </c>
+      <c r="F73" t="s">
+        <v>3</v>
+      </c>
+      <c r="G73" t="s">
+        <v>4</v>
+      </c>
+      <c r="H73" t="s">
+        <v>5</v>
+      </c>
+      <c r="I73" t="s">
+        <v>1</v>
+      </c>
+      <c r="J73" t="s">
+        <v>6</v>
+      </c>
+      <c r="K73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B74" t="s">
+        <v>0</v>
+      </c>
+      <c r="D74" t="s">
+        <v>1</v>
+      </c>
+      <c r="E74" t="s">
+        <v>2</v>
+      </c>
+      <c r="F74" t="s">
+        <v>3</v>
+      </c>
+      <c r="G74" t="s">
+        <v>4</v>
+      </c>
+      <c r="H74" t="s">
+        <v>5</v>
+      </c>
+      <c r="I74" t="s">
+        <v>1</v>
+      </c>
+      <c r="J74" t="s">
+        <v>6</v>
+      </c>
+      <c r="K74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B75" t="s">
+        <v>0</v>
+      </c>
+      <c r="D75" t="s">
+        <v>1</v>
+      </c>
+      <c r="E75" t="s">
+        <v>2</v>
+      </c>
+      <c r="F75" t="s">
+        <v>3</v>
+      </c>
+      <c r="G75" t="s">
+        <v>4</v>
+      </c>
+      <c r="H75" t="s">
+        <v>5</v>
+      </c>
+      <c r="I75" t="s">
+        <v>1</v>
+      </c>
+      <c r="J75" t="s">
+        <v>6</v>
+      </c>
+      <c r="K75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B76" t="s">
+        <v>0</v>
+      </c>
+      <c r="D76" t="s">
+        <v>1</v>
+      </c>
+      <c r="E76" t="s">
+        <v>2</v>
+      </c>
+      <c r="F76" t="s">
+        <v>3</v>
+      </c>
+      <c r="G76" t="s">
+        <v>4</v>
+      </c>
+      <c r="H76" t="s">
+        <v>5</v>
+      </c>
+      <c r="I76" t="s">
+        <v>1</v>
+      </c>
+      <c r="J76" t="s">
+        <v>6</v>
+      </c>
+      <c r="K76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B77" t="s">
+        <v>0</v>
+      </c>
+      <c r="D77" t="s">
+        <v>1</v>
+      </c>
+      <c r="E77" t="s">
+        <v>2</v>
+      </c>
+      <c r="F77" t="s">
+        <v>3</v>
+      </c>
+      <c r="G77" t="s">
+        <v>4</v>
+      </c>
+      <c r="H77" t="s">
+        <v>5</v>
+      </c>
+      <c r="I77" t="s">
+        <v>1</v>
+      </c>
+      <c r="J77" t="s">
+        <v>6</v>
+      </c>
+      <c r="K77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B78" t="s">
+        <v>0</v>
+      </c>
+      <c r="D78" t="s">
+        <v>1</v>
+      </c>
+      <c r="E78" t="s">
+        <v>2</v>
+      </c>
+      <c r="F78" t="s">
+        <v>3</v>
+      </c>
+      <c r="G78" t="s">
+        <v>4</v>
+      </c>
+      <c r="H78" t="s">
+        <v>5</v>
+      </c>
+      <c r="I78" t="s">
+        <v>1</v>
+      </c>
+      <c r="J78" t="s">
+        <v>6</v>
+      </c>
+      <c r="K78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B79" t="s">
+        <v>0</v>
+      </c>
+      <c r="D79" t="s">
+        <v>1</v>
+      </c>
+      <c r="E79" t="s">
+        <v>2</v>
+      </c>
+      <c r="F79" t="s">
+        <v>3</v>
+      </c>
+      <c r="G79" t="s">
+        <v>4</v>
+      </c>
+      <c r="H79" t="s">
+        <v>5</v>
+      </c>
+      <c r="I79" t="s">
+        <v>1</v>
+      </c>
+      <c r="J79" t="s">
+        <v>6</v>
+      </c>
+      <c r="K79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B80" t="s">
+        <v>0</v>
+      </c>
+      <c r="D80" t="s">
+        <v>1</v>
+      </c>
+      <c r="E80" t="s">
+        <v>2</v>
+      </c>
+      <c r="F80" t="s">
+        <v>3</v>
+      </c>
+      <c r="G80" t="s">
+        <v>4</v>
+      </c>
+      <c r="H80" t="s">
+        <v>5</v>
+      </c>
+      <c r="I80" t="s">
+        <v>1</v>
+      </c>
+      <c r="J80" t="s">
+        <v>6</v>
+      </c>
+      <c r="K80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B81" t="s">
+        <v>0</v>
+      </c>
+      <c r="D81" t="s">
+        <v>1</v>
+      </c>
+      <c r="E81" t="s">
+        <v>2</v>
+      </c>
+      <c r="F81" t="s">
+        <v>3</v>
+      </c>
+      <c r="G81" t="s">
+        <v>4</v>
+      </c>
+      <c r="H81" t="s">
+        <v>5</v>
+      </c>
+      <c r="I81" t="s">
+        <v>1</v>
+      </c>
+      <c r="J81" t="s">
+        <v>6</v>
+      </c>
+      <c r="K81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B82" t="s">
+        <v>0</v>
+      </c>
+      <c r="D82" t="s">
+        <v>1</v>
+      </c>
+      <c r="E82" t="s">
+        <v>2</v>
+      </c>
+      <c r="F82" t="s">
+        <v>3</v>
+      </c>
+      <c r="G82" t="s">
+        <v>4</v>
+      </c>
+      <c r="H82" t="s">
+        <v>5</v>
+      </c>
+      <c r="I82" t="s">
+        <v>1</v>
+      </c>
+      <c r="J82" t="s">
+        <v>6</v>
+      </c>
+      <c r="K82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B83" t="s">
+        <v>0</v>
+      </c>
+      <c r="D83" t="s">
+        <v>1</v>
+      </c>
+      <c r="E83" t="s">
+        <v>2</v>
+      </c>
+      <c r="F83" t="s">
+        <v>3</v>
+      </c>
+      <c r="G83" t="s">
+        <v>4</v>
+      </c>
+      <c r="H83" t="s">
+        <v>5</v>
+      </c>
+      <c r="I83" t="s">
+        <v>1</v>
+      </c>
+      <c r="J83" t="s">
+        <v>6</v>
+      </c>
+      <c r="K83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B84" t="s">
+        <v>0</v>
+      </c>
+      <c r="D84" t="s">
+        <v>1</v>
+      </c>
+      <c r="E84" t="s">
+        <v>2</v>
+      </c>
+      <c r="F84" t="s">
+        <v>3</v>
+      </c>
+      <c r="G84" t="s">
+        <v>4</v>
+      </c>
+      <c r="H84" t="s">
+        <v>5</v>
+      </c>
+      <c r="I84" t="s">
+        <v>1</v>
+      </c>
+      <c r="J84" t="s">
+        <v>6</v>
+      </c>
+      <c r="K84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B85" t="s">
+        <v>0</v>
+      </c>
+      <c r="D85" t="s">
+        <v>1</v>
+      </c>
+      <c r="E85" t="s">
+        <v>2</v>
+      </c>
+      <c r="F85" t="s">
+        <v>3</v>
+      </c>
+      <c r="G85" t="s">
+        <v>4</v>
+      </c>
+      <c r="H85" t="s">
+        <v>5</v>
+      </c>
+      <c r="I85" t="s">
+        <v>1</v>
+      </c>
+      <c r="J85" t="s">
+        <v>6</v>
+      </c>
+      <c r="K85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B86" t="s">
+        <v>0</v>
+      </c>
+      <c r="D86" t="s">
+        <v>1</v>
+      </c>
+      <c r="E86" t="s">
+        <v>2</v>
+      </c>
+      <c r="F86" t="s">
+        <v>3</v>
+      </c>
+      <c r="G86" t="s">
+        <v>4</v>
+      </c>
+      <c r="H86" t="s">
+        <v>5</v>
+      </c>
+      <c r="I86" t="s">
+        <v>1</v>
+      </c>
+      <c r="J86" t="s">
+        <v>6</v>
+      </c>
+      <c r="K86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B87" t="s">
+        <v>0</v>
+      </c>
+      <c r="D87" t="s">
+        <v>1</v>
+      </c>
+      <c r="E87" t="s">
+        <v>2</v>
+      </c>
+      <c r="F87" t="s">
+        <v>3</v>
+      </c>
+      <c r="G87" t="s">
+        <v>4</v>
+      </c>
+      <c r="H87" t="s">
+        <v>5</v>
+      </c>
+      <c r="I87" t="s">
+        <v>1</v>
+      </c>
+      <c r="J87" t="s">
+        <v>6</v>
+      </c>
+      <c r="K87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B88" t="s">
+        <v>0</v>
+      </c>
+      <c r="D88" t="s">
+        <v>1</v>
+      </c>
+      <c r="E88" t="s">
+        <v>2</v>
+      </c>
+      <c r="F88" t="s">
+        <v>3</v>
+      </c>
+      <c r="G88" t="s">
+        <v>4</v>
+      </c>
+      <c r="H88" t="s">
+        <v>5</v>
+      </c>
+      <c r="I88" t="s">
+        <v>1</v>
+      </c>
+      <c r="J88" t="s">
+        <v>6</v>
+      </c>
+      <c r="K88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B89" t="s">
+        <v>0</v>
+      </c>
+      <c r="D89" t="s">
+        <v>1</v>
+      </c>
+      <c r="E89" t="s">
+        <v>2</v>
+      </c>
+      <c r="F89" t="s">
+        <v>3</v>
+      </c>
+      <c r="G89" t="s">
+        <v>4</v>
+      </c>
+      <c r="H89" t="s">
+        <v>5</v>
+      </c>
+      <c r="I89" t="s">
+        <v>1</v>
+      </c>
+      <c r="J89" t="s">
+        <v>6</v>
+      </c>
+      <c r="K89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B90" t="s">
+        <v>0</v>
+      </c>
+      <c r="D90" t="s">
+        <v>1</v>
+      </c>
+      <c r="E90" t="s">
+        <v>2</v>
+      </c>
+      <c r="F90" t="s">
+        <v>3</v>
+      </c>
+      <c r="G90" t="s">
+        <v>4</v>
+      </c>
+      <c r="H90" t="s">
+        <v>5</v>
+      </c>
+      <c r="I90" t="s">
+        <v>1</v>
+      </c>
+      <c r="J90" t="s">
+        <v>6</v>
+      </c>
+      <c r="K90">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/public/QuestionData/cobasoalimport.xlsx
+++ b/public/QuestionData/cobasoalimport.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{499F2628-0840-4421-94EA-2EE7BF73173E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72CEAF7A-3361-4D99-BC20-A5680CFB025F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{959A027F-E952-4A3F-86B3-B8CE4AFC19FE}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="720" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="800" uniqueCount="7">
   <si>
     <t>ayam</t>
   </si>
@@ -405,10 +405,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5972D6F3-DBF1-4F7A-9842-0CCFAC148FCD}">
-  <dimension ref="B1:K90"/>
+  <dimension ref="B1:K100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A72" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5:K90"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="K90" sqref="K90:K100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3026,6 +3026,296 @@
         <v>1</v>
       </c>
     </row>
+    <row r="91" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B91" t="s">
+        <v>0</v>
+      </c>
+      <c r="D91" t="s">
+        <v>1</v>
+      </c>
+      <c r="E91" t="s">
+        <v>2</v>
+      </c>
+      <c r="F91" t="s">
+        <v>3</v>
+      </c>
+      <c r="G91" t="s">
+        <v>4</v>
+      </c>
+      <c r="H91" t="s">
+        <v>5</v>
+      </c>
+      <c r="I91" t="s">
+        <v>1</v>
+      </c>
+      <c r="J91" t="s">
+        <v>6</v>
+      </c>
+      <c r="K91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B92" t="s">
+        <v>0</v>
+      </c>
+      <c r="D92" t="s">
+        <v>1</v>
+      </c>
+      <c r="E92" t="s">
+        <v>2</v>
+      </c>
+      <c r="F92" t="s">
+        <v>3</v>
+      </c>
+      <c r="G92" t="s">
+        <v>4</v>
+      </c>
+      <c r="H92" t="s">
+        <v>5</v>
+      </c>
+      <c r="I92" t="s">
+        <v>1</v>
+      </c>
+      <c r="J92" t="s">
+        <v>6</v>
+      </c>
+      <c r="K92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B93" t="s">
+        <v>0</v>
+      </c>
+      <c r="D93" t="s">
+        <v>1</v>
+      </c>
+      <c r="E93" t="s">
+        <v>2</v>
+      </c>
+      <c r="F93" t="s">
+        <v>3</v>
+      </c>
+      <c r="G93" t="s">
+        <v>4</v>
+      </c>
+      <c r="H93" t="s">
+        <v>5</v>
+      </c>
+      <c r="I93" t="s">
+        <v>1</v>
+      </c>
+      <c r="J93" t="s">
+        <v>6</v>
+      </c>
+      <c r="K93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B94" t="s">
+        <v>0</v>
+      </c>
+      <c r="D94" t="s">
+        <v>1</v>
+      </c>
+      <c r="E94" t="s">
+        <v>2</v>
+      </c>
+      <c r="F94" t="s">
+        <v>3</v>
+      </c>
+      <c r="G94" t="s">
+        <v>4</v>
+      </c>
+      <c r="H94" t="s">
+        <v>5</v>
+      </c>
+      <c r="I94" t="s">
+        <v>1</v>
+      </c>
+      <c r="J94" t="s">
+        <v>6</v>
+      </c>
+      <c r="K94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B95" t="s">
+        <v>0</v>
+      </c>
+      <c r="D95" t="s">
+        <v>1</v>
+      </c>
+      <c r="E95" t="s">
+        <v>2</v>
+      </c>
+      <c r="F95" t="s">
+        <v>3</v>
+      </c>
+      <c r="G95" t="s">
+        <v>4</v>
+      </c>
+      <c r="H95" t="s">
+        <v>5</v>
+      </c>
+      <c r="I95" t="s">
+        <v>1</v>
+      </c>
+      <c r="J95" t="s">
+        <v>6</v>
+      </c>
+      <c r="K95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B96" t="s">
+        <v>0</v>
+      </c>
+      <c r="D96" t="s">
+        <v>1</v>
+      </c>
+      <c r="E96" t="s">
+        <v>2</v>
+      </c>
+      <c r="F96" t="s">
+        <v>3</v>
+      </c>
+      <c r="G96" t="s">
+        <v>4</v>
+      </c>
+      <c r="H96" t="s">
+        <v>5</v>
+      </c>
+      <c r="I96" t="s">
+        <v>1</v>
+      </c>
+      <c r="J96" t="s">
+        <v>6</v>
+      </c>
+      <c r="K96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B97" t="s">
+        <v>0</v>
+      </c>
+      <c r="D97" t="s">
+        <v>1</v>
+      </c>
+      <c r="E97" t="s">
+        <v>2</v>
+      </c>
+      <c r="F97" t="s">
+        <v>3</v>
+      </c>
+      <c r="G97" t="s">
+        <v>4</v>
+      </c>
+      <c r="H97" t="s">
+        <v>5</v>
+      </c>
+      <c r="I97" t="s">
+        <v>1</v>
+      </c>
+      <c r="J97" t="s">
+        <v>6</v>
+      </c>
+      <c r="K97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B98" t="s">
+        <v>0</v>
+      </c>
+      <c r="D98" t="s">
+        <v>1</v>
+      </c>
+      <c r="E98" t="s">
+        <v>2</v>
+      </c>
+      <c r="F98" t="s">
+        <v>3</v>
+      </c>
+      <c r="G98" t="s">
+        <v>4</v>
+      </c>
+      <c r="H98" t="s">
+        <v>5</v>
+      </c>
+      <c r="I98" t="s">
+        <v>1</v>
+      </c>
+      <c r="J98" t="s">
+        <v>6</v>
+      </c>
+      <c r="K98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B99" t="s">
+        <v>0</v>
+      </c>
+      <c r="D99" t="s">
+        <v>1</v>
+      </c>
+      <c r="E99" t="s">
+        <v>2</v>
+      </c>
+      <c r="F99" t="s">
+        <v>3</v>
+      </c>
+      <c r="G99" t="s">
+        <v>4</v>
+      </c>
+      <c r="H99" t="s">
+        <v>5</v>
+      </c>
+      <c r="I99" t="s">
+        <v>1</v>
+      </c>
+      <c r="J99" t="s">
+        <v>6</v>
+      </c>
+      <c r="K99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B100" t="s">
+        <v>0</v>
+      </c>
+      <c r="D100" t="s">
+        <v>1</v>
+      </c>
+      <c r="E100" t="s">
+        <v>2</v>
+      </c>
+      <c r="F100" t="s">
+        <v>3</v>
+      </c>
+      <c r="G100" t="s">
+        <v>4</v>
+      </c>
+      <c r="H100" t="s">
+        <v>5</v>
+      </c>
+      <c r="I100" t="s">
+        <v>1</v>
+      </c>
+      <c r="J100" t="s">
+        <v>6</v>
+      </c>
+      <c r="K100">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
